--- a/biology/Médecine/Mathieu_Buisson/Mathieu_Buisson.xlsx
+++ b/biology/Médecine/Mathieu_Buisson/Mathieu_Buisson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mathieu-François-Régis Buisson (écrit aussi Matthieu-François-Régis Buisson ou Matthieu Buisson) est un médecin français. Né à Lyon en 1776, il est décédé à Paris soit en octobre 1804[1], soit le 27 octobre 1805[2], soit le 8 octobre 1806[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mathieu-François-Régis Buisson (écrit aussi Matthieu-François-Régis Buisson ou Matthieu Buisson) est un médecin français. Né à Lyon en 1776, il est décédé à Paris soit en octobre 1804, soit le 27 octobre 1805, soit le 8 octobre 1806.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cousin et élève de Bichat, il collabore à ses travaux notamment pour le Traité d'anatomie descriptive (1803).
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De la division la plus naturelle des phénomènes physiologiques, imp. Feugueray (Paris), 1802, Texte intégral.
 Dissertation sur le choléra-morbus, 1813.
